--- a/biology/Botanique/Liste_des_espèces_de_Droséra/Liste_des_espèces_de_Droséra.xlsx
+++ b/biology/Botanique/Liste_des_espèces_de_Droséra/Liste_des_espèces_de_Droséra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Dros%C3%A9ra</t>
+          <t>Liste_des_espèces_de_Droséra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les droseras sont des plantes carnivores de la famille des Droséracées et du genre Drosera.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Dros%C3%A9ra</t>
+          <t>Liste_des_espèces_de_Droséra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,21 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Section Arachnopus
-Section Arcturi
-Drosera arcturi
-Section Drosera
-Section Bryastrum
-Section Coelophylla
-Drosera glanduligera
-Section Lasiocephala
-Section Meristocaules
-Drosera meristocaulis
-Section Phycopsis
-Drosera binata
-Section Prolifera
-Section Ptycnostigma
-Section Thelocalyx</t>
+          <t>Section Arcturi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosera arcturi
+</t>
         </is>
       </c>
     </row>
@@ -537,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Dros%C3%A9ra</t>
+          <t>Liste_des_espèces_de_Droséra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,14 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sous-genre Ergaleium</t>
+          <t>Sous-genre Drosera</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Section Ergaleium
-Section Erythrorhiza
-Section Stolonifera</t>
+          <t>Section Coelophylla</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosera glanduligera
+</t>
         </is>
       </c>
     </row>
@@ -569,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Dros%C3%A9ra</t>
+          <t>Liste_des_espèces_de_Droséra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +594,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Sous-genre Drosera</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Section Meristocaules</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosera meristocaulis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_Droséra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_Dros%C3%A9ra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sous-genre Drosera</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Section Phycopsis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosera binata
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_Droséra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_Dros%C3%A9ra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sous-genre Regiae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
